--- a/test files/program pro.Ma..xlsx
+++ b/test files/program pro.Ma..xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscoded\Credit_App\Credit_App\test files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC013EEE-7C56-48B7-9F82-40153134BA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statment" sheetId="6" r:id="rId1"/>
@@ -23,7 +29,7 @@
     <sheet name="SPO 16.06 TO 05.07" sheetId="18" r:id="rId14"/>
     <sheet name="SPO 06.07 TO 31.07" sheetId="19" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -176,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -623,45 +629,45 @@
   <cellStyles count="41">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="2"/>
-    <cellStyle name="Normal 10 3" xfId="3"/>
-    <cellStyle name="Normal 10 4" xfId="4"/>
-    <cellStyle name="Normal 140" xfId="5"/>
-    <cellStyle name="Normal 148" xfId="6"/>
-    <cellStyle name="Normal 149" xfId="7"/>
-    <cellStyle name="Normal 151" xfId="8"/>
-    <cellStyle name="Normal 152" xfId="40"/>
-    <cellStyle name="Normal 153" xfId="9"/>
-    <cellStyle name="Normal 154" xfId="10"/>
-    <cellStyle name="Normal 157" xfId="38"/>
-    <cellStyle name="Normal 158" xfId="39"/>
-    <cellStyle name="Normal 159" xfId="11"/>
-    <cellStyle name="Normal 160" xfId="12"/>
-    <cellStyle name="Normal 162" xfId="13"/>
-    <cellStyle name="Normal 163" xfId="14"/>
-    <cellStyle name="Normal 165" xfId="15"/>
-    <cellStyle name="Normal 166" xfId="16"/>
-    <cellStyle name="Normal 19 2" xfId="17"/>
-    <cellStyle name="Normal 19 3" xfId="18"/>
-    <cellStyle name="Normal 19 4" xfId="19"/>
-    <cellStyle name="Normal 2 2" xfId="20"/>
-    <cellStyle name="Normal 2 3" xfId="21"/>
-    <cellStyle name="Normal 2 4" xfId="22"/>
-    <cellStyle name="Normal 20 2" xfId="23"/>
-    <cellStyle name="Normal 20 3" xfId="24"/>
-    <cellStyle name="Normal 20 4" xfId="25"/>
-    <cellStyle name="Normal 23 2" xfId="26"/>
-    <cellStyle name="Normal 23 3" xfId="27"/>
-    <cellStyle name="Normal 23 4" xfId="28"/>
-    <cellStyle name="Normal 37 2" xfId="29"/>
-    <cellStyle name="Normal 37 3" xfId="30"/>
-    <cellStyle name="Normal 37 4" xfId="31"/>
-    <cellStyle name="Normal 38 2" xfId="32"/>
-    <cellStyle name="Normal 38 3" xfId="33"/>
-    <cellStyle name="Normal 38 4" xfId="34"/>
-    <cellStyle name="Normal 9 2" xfId="35"/>
-    <cellStyle name="Normal 9 3" xfId="36"/>
-    <cellStyle name="Normal 9 4" xfId="37"/>
+    <cellStyle name="Normal 10 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 10 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 140" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 148" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 149" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 151" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 152" xfId="40" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 153" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 154" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 157" xfId="38" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 158" xfId="39" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 159" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 160" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 162" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 163" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 165" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 166" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 19 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 19 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 19 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 20 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 20 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 20 4" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 23 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 23 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 23 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 37 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 37 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 37 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 38 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 38 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 38 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 9 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 9 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 9 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -719,7 +725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,9 +757,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,6 +809,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -960,11 +1002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1027,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1">
+    <row r="2" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -1065,14 +1107,16 @@
         <v>4</v>
       </c>
       <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="N2" s="8">
+        <v>5</v>
+      </c>
       <c r="O2" s="9"/>
       <c r="P2" s="10">
         <f t="shared" ref="P2:P3" si="1">+N2*O2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="11">
         <f>+B2+1</f>
@@ -1113,14 +1157,16 @@
       <c r="M3" s="12">
         <v>150.04</v>
       </c>
-      <c r="N3" s="13"/>
+      <c r="N3" s="8">
+        <v>5</v>
+      </c>
       <c r="O3" s="13"/>
       <c r="P3" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B4" s="11">
         <f t="shared" ref="B4:B15" si="2">+B3+1</f>
         <v>3</v>
@@ -1158,11 +1204,13 @@
         <v>9</v>
       </c>
       <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
+      <c r="N4" s="8">
+        <v>5</v>
+      </c>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75">
+    <row r="5" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B5" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1200,11 +1248,13 @@
         <v>5</v>
       </c>
       <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="N5" s="8">
+        <v>5</v>
+      </c>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75">
+    <row r="6" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B6" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1242,11 +1292,13 @@
         <v>5</v>
       </c>
       <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75">
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B7" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1284,11 +1336,13 @@
         <v>5</v>
       </c>
       <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75">
+    <row r="8" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B8" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1326,11 +1380,13 @@
         <v>12</v>
       </c>
       <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="8">
+        <v>5</v>
+      </c>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75">
+    <row r="9" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B9" s="11">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1368,11 +1424,13 @@
         <v>7</v>
       </c>
       <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
+      <c r="N9" s="8">
+        <v>5</v>
+      </c>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75">
+    <row r="10" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B10" s="11">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1410,11 +1468,13 @@
         <v>7</v>
       </c>
       <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75">
+    <row r="11" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B11" s="11">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1433,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="44" t="str">
-        <f>IF(L11&gt;7,"Yes","No")</f>
+        <f t="shared" ref="J11:J35" si="4">IF(L11&gt;7,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="K11" s="45" t="s">
@@ -1444,11 +1504,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="N11" s="8">
+        <v>5</v>
+      </c>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75">
+    <row r="12" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B12" s="11">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1467,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="44" t="str">
-        <f>IF(L12&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K12" s="45" t="s">
@@ -1478,11 +1540,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="N12" s="8">
+        <v>5</v>
+      </c>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75">
+    <row r="13" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B13" s="11">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1501,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="44" t="str">
-        <f>IF(L13&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K13" s="45" t="s">
@@ -1512,11 +1576,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="N13" s="8">
+        <v>5</v>
+      </c>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75">
+    <row r="14" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="B14" s="11">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1535,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="44" t="str">
-        <f>IF(L14&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K14" s="45" t="s">
@@ -1546,11 +1612,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="N14" s="8">
+        <v>5</v>
+      </c>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75">
+    <row r="15" spans="1:16" ht="16.5" thickTop="1">
       <c r="B15" s="11">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1569,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="44" t="str">
-        <f>IF(L15&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K15" s="45" t="s">
@@ -1580,7 +1648,9 @@
         <v>0</v>
       </c>
       <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="N15" s="8">
+        <v>5</v>
+      </c>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
     </row>
@@ -1596,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="44" t="str">
-        <f>IF(L16&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K16" s="45" t="s">
@@ -1620,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="44" t="str">
-        <f>IF(L17&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K17" s="45" t="s">
@@ -1644,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="44" t="str">
-        <f>IF(L18&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K18" s="45" t="s">
@@ -1668,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="44" t="str">
-        <f>IF(L19&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K19" s="45" t="s">
@@ -1692,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="44" t="str">
-        <f>IF(L20&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K20" s="45" t="s">
@@ -1716,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="44" t="str">
-        <f>IF(L21&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K21" s="45" t="s">
@@ -1740,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="44" t="str">
-        <f>IF(L22&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K22" s="45" t="s">
@@ -1764,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="44" t="str">
-        <f>IF(L23&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K23" s="45" t="s">
@@ -1788,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="44" t="str">
-        <f>IF(L24&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K24" s="45" t="s">
@@ -1812,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="44" t="str">
-        <f>IF(L25&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K25" s="45" t="s">
@@ -1836,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="44" t="str">
-        <f>IF(L26&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K26" s="45" t="s">
@@ -1860,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="44" t="str">
-        <f>IF(L27&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K27" s="45" t="s">
@@ -1884,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="44" t="str">
-        <f>IF(L28&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K28" s="45" t="s">
@@ -1908,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="44" t="str">
-        <f>IF(L29&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K29" s="45" t="s">
@@ -1932,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="44" t="str">
-        <f>IF(L30&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K30" s="45" t="s">
@@ -1956,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="44" t="str">
-        <f>IF(L31&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K31" s="45" t="s">
@@ -1980,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="44" t="str">
-        <f>IF(L32&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K32" s="45" t="s">
@@ -2004,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="44" t="str">
-        <f>IF(L33&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K33" s="45" t="s">
@@ -2028,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="44" t="str">
-        <f>IF(L34&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K34" s="45" t="s">
@@ -2052,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="47" t="str">
-        <f>IF(L35&gt;7,"Yes","No")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="K35" s="48" t="s">
@@ -2069,19 +2139,22 @@
       <c r="H38" s="49"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K35">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H35">
-      <formula1>contract!$I$1:$AA$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>contract!$I$1:$AA$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H35</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{34625691-6328-479E-B89D-DC17A4B73AF3}">
           <x14:formula1>
             <xm:f>basic!$I$1:$AG$1</xm:f>
@@ -2101,7 +2174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2876,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3651,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4642,7 +4715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5633,7 +5706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6408,7 +6481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6967,7 +7040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7706,7 +7779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8481,7 +8554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -8821,7 +8894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9161,7 +9234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9500,7 +9573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10275,7 +10348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10834,7 +10907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
